--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Spring.040521.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Cornish.Spring.040521.xlsx_with_dialog_acts.xlsx
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1947,12 +1947,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2351,12 +2351,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3105,12 +3105,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3261,12 +3261,12 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3337,12 +3337,12 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -5017,12 +5017,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5257,12 +5257,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5929,12 +5929,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5971,12 +5971,12 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6013,12 +6013,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
